--- a/CodeSystem-v3-hgvs.xlsx
+++ b/CodeSystem-v3-hgvs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
